--- a/legislator/property/output/normal/黃文玲_2012-04-20_財產申報表_tmpb5861.xlsx
+++ b/legislator/property/output/normal/黃文玲_2012-04-20_財產申報表_tmpb5861.xlsx
@@ -18,9 +18,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="93">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="107">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市大安區通化段一小段07210000地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區通化段一小段06780000地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區通化段一小段06780002地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區遒化段一小段07380000地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮三條圳段十七份小段04080000地號</t>
+  </si>
+  <si>
+    <t>100000分之714</t>
+  </si>
+  <si>
+    <t>10000分之100</t>
+  </si>
+  <si>
+    <t>黃文玲</t>
+  </si>
+  <si>
+    <t>97年10月08曰</t>
+  </si>
+  <si>
+    <t>97年10月08日</t>
+  </si>
+  <si>
+    <t>92年03月26曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>貝賣</t>
+  </si>
+  <si>
+    <t>拍賣</t>
+  </si>
+  <si>
+    <t>27800000(取得之房地總價額附屬建物16.44)</t>
+  </si>
+  <si>
+    <t>27800000(取得之房地總價額）</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-20</t>
+  </si>
+  <si>
+    <t>tmpb5861</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -41,127 +146,67 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市大安區通化段一小段 0721-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區通化段一小段 0678-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區通化段一小段 0678-0002 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區遒化段一小段 0738-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮三條圳段十七 份小段0408-0000地號</t>
-  </si>
-  <si>
-    <t>100000 分 之714</t>
-  </si>
-  <si>
-    <t>10000 分 之100</t>
-  </si>
-  <si>
-    <t>黃文玲</t>
-  </si>
-  <si>
-    <t>97 年 10 月08曰</t>
-  </si>
-  <si>
-    <t>97 年 10 月08日</t>
-  </si>
-  <si>
-    <t>92 年 03 月26曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>拍賣</t>
-  </si>
-  <si>
-    <t>27,800，000(取得之房地 總價額，附屬建物16.44)</t>
-  </si>
-  <si>
-    <t>27,800，000(取得之房 地總價額）</t>
-  </si>
-  <si>
-    <t>27，800，000(取得之房 地總價額）</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市大安區通化段一小段 02731-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區通化段一小段 02802-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區通化段一小段 02803-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區通化段一小段 02808-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區通化段一小段 02809-000 建號</t>
+    <t>臺北市大安區通化段一小段02731000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區通化段一小段02802000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區通化段一小段02803000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區通化段一小段02808000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區通化段一小段02809000建號</t>
   </si>
   <si>
     <t>彰化縣員林鎮三條圳段+七</t>
   </si>
   <si>
-    <t>彰化縣員林鎮三條圳段十七 份小段02934-000建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮三條圳段十七 份小段02972-000建號</t>
+    <t>彰化縣員林鎮三條圳段十七份小段02934000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮三條圳段十七份小段02972000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>100000 分 之766</t>
-  </si>
-  <si>
-    <t>100000 分 之 1295</t>
+    <t>100000分之766</t>
+  </si>
+  <si>
+    <t>100000分之1295</t>
   </si>
   <si>
     <t>323分之2</t>
   </si>
   <si>
-    <t>100000 分 之600</t>
-  </si>
-  <si>
-    <t>10000 分 之627</t>
-  </si>
-  <si>
-    <t>10000 分 之116</t>
-  </si>
-  <si>
-    <t>92 年 03</t>
-  </si>
-  <si>
-    <t>92 年 03 月26日</t>
-  </si>
-  <si>
-    <t>27,800,000(97.10.08 取得之房地總價額，附 屬建物16.44)</t>
-  </si>
-  <si>
-    <t>27,800,000(97.10.08 取得之房地總價額,共 同使用部分）</t>
-  </si>
-  <si>
-    <t>27,800,000(97.10.08 取得之房地總價額，共 同使用部分）</t>
-  </si>
-  <si>
-    <t>(超過五年’附屬建物</t>
-  </si>
-  <si>
-    <t>(超過五年,共同使用 部分）</t>
+    <t>100000分之600</t>
+  </si>
+  <si>
+    <t>10000分之627</t>
+  </si>
+  <si>
+    <t>10000分之116</t>
+  </si>
+  <si>
+    <t>92年03</t>
+  </si>
+  <si>
+    <t>92年03月26日</t>
+  </si>
+  <si>
+    <t>27800000(97.10.08取得之房地總價額附屬建物16.44)</t>
+  </si>
+  <si>
+    <t>27800000(97.10.08取得之房地總價額共同使用部分）</t>
+  </si>
+  <si>
+    <t>(超過五年附屬建物</t>
+  </si>
+  <si>
+    <t>(超過五年共同使用部分）</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -188,25 +233,25 @@
     <t>華南商業銀行大安分行</t>
   </si>
   <si>
-    <t>台北富邦商業銀行大安分 行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行中和分 行</t>
+    <t>台北富邦商業銀行大安分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行中和分行</t>
   </si>
   <si>
     <t>彰化商業銀行仁和分行</t>
   </si>
   <si>
-    <t>國泰世華商業銀行大安分 行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行信義分 行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行南京東 路分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行城中分 行</t>
+    <t>國泰世華商業銀行大安分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行信義分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行南京東路分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行城中分行</t>
   </si>
   <si>
     <t>台中商業銀行北員林分行</t>
@@ -236,7 +281,7 @@
     <t>陳忠儀</t>
   </si>
   <si>
-    <t>碩成國際法律 事務所</t>
+    <t>碩成國際法律事務所</t>
   </si>
   <si>
     <t>債務人</t>
@@ -254,13 +299,13 @@
     <t>取得（發生）原因</t>
   </si>
   <si>
-    <t>房屋貸款 -</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行 臺北市中正區館前路</t>
-  </si>
-  <si>
-    <t>97年10月 09日</t>
+    <t>房屋貸款</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行臺北市中正區館前路</t>
+  </si>
+  <si>
+    <t>97年10月09日</t>
   </si>
   <si>
     <t>購置房屋</t>
@@ -278,19 +323,16 @@
     <t>投資金額</t>
   </si>
   <si>
-    <t>陸上不動產開發股份有限公 司</t>
-  </si>
-  <si>
-    <t>碩成國際法律事務所</t>
-  </si>
-  <si>
-    <t>臺北市大安區仁愛路四段 25-2號12樓</t>
-  </si>
-  <si>
-    <t>101年02月 29日</t>
-  </si>
-  <si>
-    <t>101年02月 01曰</t>
+    <t>陸上不動產開發股份有限公司</t>
+  </si>
+  <si>
+    <t>臺北市大安區仁愛路四段252號12樓</t>
+  </si>
+  <si>
+    <t>101年02月29日</t>
+  </si>
+  <si>
+    <t>101年02月01曰</t>
   </si>
   <si>
     <t>個人投資</t>
@@ -655,13 +697,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,135 +725,261 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>671</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1756</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="2">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>1968.93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1756</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="2">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>0.07</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1756</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="2">
         <v>16</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1756</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>2114</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1756</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -829,25 +997,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -855,25 +1023,25 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2">
         <v>129.18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -881,25 +1049,25 @@
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2">
         <v>2442.97</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -907,25 +1075,25 @@
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2">
         <v>2631</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -933,25 +1101,25 @@
         <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2">
         <v>639.54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -959,25 +1127,25 @@
         <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2">
         <v>7475.26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -985,25 +1153,25 @@
         <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2">
         <v>124.81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1011,25 +1179,25 @@
         <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2">
         <v>159.48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1037,25 +1205,25 @@
         <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2">
         <v>1685.3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1073,22 +1241,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1096,16 +1264,16 @@
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1117,16 +1285,16 @@
         <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1138,16 +1306,16 @@
         <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1159,16 +1327,16 @@
         <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1180,16 +1348,16 @@
         <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1201,16 +1369,16 @@
         <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1222,16 +1390,16 @@
         <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1243,16 +1411,16 @@
         <v>63</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1264,16 +1432,16 @@
         <v>64</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1285,16 +1453,16 @@
         <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1306,16 +1474,16 @@
         <v>67</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1327,16 +1495,16 @@
         <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1348,16 +1516,16 @@
         <v>69</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1369,16 +1537,16 @@
         <v>70</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1390,16 +1558,16 @@
         <v>71</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1411,16 +1579,16 @@
         <v>72</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F17" s="2">
         <v>115041.48</v>
@@ -1434,16 +1602,16 @@
         <v>73</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -1455,16 +1623,16 @@
         <v>74</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -1476,16 +1644,16 @@
         <v>75</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -1497,16 +1665,16 @@
         <v>76</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -1528,22 +1696,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1551,22 +1719,22 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2">
         <v>16852179</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1584,22 +1752,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1607,22 +1775,22 @@
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E2" s="2">
         <v>900000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1630,22 +1798,22 @@
         <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E3" s="2">
         <v>500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃文玲_2012-04-20_財產申報表_tmpb5861.xlsx
+++ b/legislator/property/output/normal/黃文玲_2012-04-20_財產申報表_tmpb5861.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="85">
   <si>
     <t>name</t>
   </si>
@@ -62,7 +62,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市大安區通化段一小段07210000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺北市大安區通化段一小段06780000地號</t>
@@ -104,9 +107,6 @@
     <t>拍賣</t>
   </si>
   <si>
-    <t>27800000(取得之房地總價額附屬建物16.44)</t>
-  </si>
-  <si>
     <t>27800000(取得之房地總價額）</t>
   </si>
   <si>
@@ -125,30 +125,15 @@
     <t>tmpb5861</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>臺北市大安區通化段一小段02731000建號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>27800000(97.10.08取得之房地總價額附屬建物16.44)</t>
+  </si>
+  <si>
     <t>臺北市大安區通化段一小段02802000建號</t>
   </si>
   <si>
@@ -170,9 +155,6 @@
     <t>彰化縣員林鎮三條圳段十七份小段02972000建號</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>100000分之766</t>
   </si>
   <si>
@@ -197,9 +179,6 @@
     <t>92年03月26日</t>
   </si>
   <si>
-    <t>27800000(97.10.08取得之房地總價額附屬建物16.44)</t>
-  </si>
-  <si>
     <t>27800000(97.10.08取得之房地總價額共同使用部分）</t>
   </si>
   <si>
@@ -209,27 +188,15 @@
     <t>(超過五年共同使用部分）</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>華南商業銀行仁愛路分行</t>
   </si>
   <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>華南商業銀行大安分行</t>
   </si>
   <si>
@@ -257,9 +224,6 @@
     <t>台中商業銀行北員林分行</t>
   </si>
   <si>
-    <t>支票存款</t>
-  </si>
-  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
@@ -269,9 +233,6 @@
     <t>定期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -284,21 +245,6 @@
     <t>碩成國際法律事務所</t>
   </si>
   <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>房屋貸款</t>
   </si>
   <si>
@@ -311,18 +257,6 @@
     <t>購置房屋</t>
   </si>
   <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
-  </si>
-  <si>
     <t>陸上不動產開發股份有限公司</t>
   </si>
   <si>
@@ -332,10 +266,10 @@
     <t>101年02月29日</t>
   </si>
   <si>
+    <t>個人投資</t>
+  </si>
+  <si>
     <t>101年02月01曰</t>
-  </si>
-  <si>
-    <t>個人投資</t>
   </si>
   <si>
     <t>獨資</t>
@@ -697,13 +631,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -746,31 +680,37 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>671</v>
+        <v>1968.93</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>31</v>
@@ -782,7 +722,7 @@
         <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2">
         <v>1756</v>
@@ -791,30 +731,36 @@
         <v>34</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.00714</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>14.0581602</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>1968.93</v>
+        <v>0.07</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>29</v>
@@ -829,7 +775,7 @@
         <v>33</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M3" s="2">
         <v>1756</v>
@@ -838,24 +784,30 @@
         <v>34</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.00714</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.0004998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>0.07</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>23</v>
@@ -876,7 +828,7 @@
         <v>33</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M4" s="2">
         <v>1756</v>
@@ -885,33 +837,39 @@
         <v>34</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.00714</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.38556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>54</v>
+        <v>2114</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>31</v>
@@ -923,7 +881,7 @@
         <v>33</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M5" s="2">
         <v>1756</v>
@@ -932,54 +890,13 @@
         <v>34</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2114</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1756</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="2">
-        <v>18</v>
+      <c r="P5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>21.14</v>
       </c>
     </row>
   </sheetData>
@@ -989,7 +906,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -999,231 +916,205 @@
       <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
+        <v>129.18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2442.97</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2">
-        <v>129.18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2">
-        <v>2442.97</v>
+        <v>2631</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2">
-        <v>2631</v>
+        <v>639.54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7475.26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="2">
-        <v>639.54</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2">
-        <v>7475.26</v>
+        <v>124.81</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="2">
+        <v>159.48</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="2">
-        <v>124.81</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2">
-        <v>159.48</v>
+        <v>1685.3</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>32</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1685.3</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +1124,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1241,443 +1132,420 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>22</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>3753</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>3753</v>
+        <v>1195055</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>1195055</v>
+        <v>105848</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>105848</v>
+        <v>91026</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
+        <v>60</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>91026</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
+        <v>61</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>389</v>
+        <v>961665</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
+        <v>62</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>961665</v>
+        <v>180563</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>180563</v>
+        <v>10890000</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>10890000</v>
+        <v>17041</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>17041</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>21</v>
+        <v>179843</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
+        <v>69</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>179843</v>
+        <v>642</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>642</v>
+        <v>1420927</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
+        <v>71</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>1420927</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
+        <v>72</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="F16" s="2">
+        <v>115041.48</v>
+      </c>
       <c r="G16" s="2">
-        <v>2000000</v>
+        <v>3387972</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
+        <v>73</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="2">
-        <v>115041.48</v>
-      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>3387972</v>
+        <v>3020903</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
+        <v>74</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>3020903</v>
+        <v>62540</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
+        <v>75</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
-        <v>62540</v>
+        <v>3250377</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
-        <v>3250377</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1">
-        <v>76</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
         <v>664650</v>
       </c>
     </row>
@@ -1687,6 +1555,39 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1">
+        <v>16852179</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1696,124 +1597,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
+      </c>
+      <c r="E1" s="1">
+        <v>900000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2">
-        <v>16852179</v>
+        <v>500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>120</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="2">
-        <v>900000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>121</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="2">
-        <v>500000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃文玲_2012-04-20_財產申報表_tmpb5861.xlsx
+++ b/legislator/property/output/normal/黃文玲_2012-04-20_財產申報表_tmpb5861.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="87">
   <si>
     <t>name</t>
   </si>
@@ -68,6 +68,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市大安區通化段一小段07210000地號</t>
+  </si>
+  <si>
     <t>臺北市大安區通化段一小段06780000地號</t>
   </si>
   <si>
@@ -107,6 +110,9 @@
     <t>拍賣</t>
   </si>
   <si>
+    <t>27800000(取得之房地總價額附屬建物16.44)</t>
+  </si>
+  <si>
     <t>27800000(取得之房地總價額）</t>
   </si>
   <si>
@@ -128,55 +134,55 @@
     <t>臺北市大安區通化段一小段02731000建號</t>
   </si>
   <si>
+    <t>臺北市大安區通化段一小段02802000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區通化段一小段02803000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區通化段一小段02808000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區通化段一小段02809000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮三條圳段+七</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮三條圳段十七份小段02934000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮三條圳段十七份小段02972000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
+    <t>100000分之766</t>
+  </si>
+  <si>
+    <t>100000分之1295</t>
+  </si>
+  <si>
+    <t>323分之2</t>
+  </si>
+  <si>
+    <t>100000分之600</t>
+  </si>
+  <si>
+    <t>10000分之627</t>
+  </si>
+  <si>
+    <t>10000分之116</t>
+  </si>
+  <si>
+    <t>92年03</t>
+  </si>
+  <si>
+    <t>92年03月26日</t>
+  </si>
+  <si>
     <t>27800000(97.10.08取得之房地總價額附屬建物16.44)</t>
-  </si>
-  <si>
-    <t>臺北市大安區通化段一小段02802000建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區通化段一小段02803000建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區通化段一小段02808000建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區通化段一小段02809000建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮三條圳段+七</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮三條圳段十七份小段02934000建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮三條圳段十七份小段02972000建號</t>
-  </si>
-  <si>
-    <t>100000分之766</t>
-  </si>
-  <si>
-    <t>100000分之1295</t>
-  </si>
-  <si>
-    <t>323分之2</t>
-  </si>
-  <si>
-    <t>100000分之600</t>
-  </si>
-  <si>
-    <t>10000分之627</t>
-  </si>
-  <si>
-    <t>10000分之116</t>
-  </si>
-  <si>
-    <t>92年03</t>
-  </si>
-  <si>
-    <t>92年03月26日</t>
   </si>
   <si>
     <t>27800000(97.10.08取得之房地總價額共同使用部分）</t>
@@ -631,7 +637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -689,72 +695,72 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1968.93</v>
+        <v>671</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2">
         <v>1756</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>0.00714</v>
       </c>
       <c r="Q2" s="2">
-        <v>14.0581602</v>
+        <v>4.79094</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>0.07</v>
+        <v>1968.93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>24</v>
@@ -763,139 +769,192 @@
         <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2">
         <v>1756</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>0.00714</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.0004998</v>
+        <v>14.0581602</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>54</v>
+        <v>0.07</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" s="2">
         <v>1756</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>0.00714</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.38556</v>
+        <v>0.0004998</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>2114</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M5" s="2">
         <v>1756</v>
       </c>
       <c r="N5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.00714</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.38556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2114</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="2">
+      <c r="K6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1756</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="2">
         <v>18</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P6" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q6" s="2">
         <v>21.14</v>
       </c>
     </row>
@@ -906,215 +965,484 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2">
         <v>129.18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2442.97</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1756</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="2">
+        <v>23</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>129.18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2">
-        <v>2631</v>
+        <v>2442.97</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1756</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="2">
+        <v>24</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.00766</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>18.7131502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2">
-        <v>639.54</v>
+        <v>2631</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1756</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="2">
+        <v>25</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.01295</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>34.07145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
         <v>26</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>27</v>
-      </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2">
-        <v>7475.26</v>
+        <v>639.54</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1756</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="2">
         <v>26</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="P5" s="2">
+        <v>0.00619195046439629</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7475.26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1756</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="2">
+        <v>27</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.006</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>44.85156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
         <v>28</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="2">
         <v>124.81</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>31</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="2">
-        <v>159.48</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1756</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="2">
         <v>28</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>124.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2">
-        <v>1685.3</v>
+        <v>159.48</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1756</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="2">
+        <v>31</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.0627</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>9.999396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1685.3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1756</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="2">
+        <v>32</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.0116</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>19.54948</v>
       </c>
     </row>
   </sheetData>
@@ -1124,7 +1452,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1132,16 +1460,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -1150,402 +1478,423 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>1195055</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>105848</v>
+        <v>1195055</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>91026</v>
+        <v>105848</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
+        <v>59</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>389</v>
+        <v>91026</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
+        <v>60</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>961665</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
+        <v>61</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>180563</v>
+        <v>961665</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
+        <v>62</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>10890000</v>
+        <v>180563</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>17041</v>
+        <v>10890000</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>67</v>
+        <v>17041</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>179843</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>642</v>
+        <v>179843</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
+        <v>69</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>1420927</v>
+        <v>642</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>2000000</v>
+        <v>1420927</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
+        <v>71</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="2">
-        <v>115041.48</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>3387972</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
+        <v>72</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="F17" s="2">
+        <v>115041.48</v>
+      </c>
       <c r="G17" s="2">
-        <v>3020903</v>
+        <v>3387972</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
+        <v>73</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>62540</v>
+        <v>3020903</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
+        <v>74</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
-        <v>3250377</v>
+        <v>62540</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
+        <v>75</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
+        <v>3250377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>76</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2">
         <v>664650</v>
       </c>
     </row>
@@ -1555,39 +1904,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="1">
-        <v>16852179</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1597,45 +1913,124 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1">
+        <v>16852179</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>116</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="2">
+        <v>16852179</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1">
         <v>900000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2">
-        <v>500000</v>
+        <v>900000</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>83</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>121</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃文玲_2012-04-20_財產申報表_tmpb5861.xlsx
+++ b/legislator/property/output/normal/黃文玲_2012-04-20_財產申報表_tmpb5861.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="88">
   <si>
     <t>name</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>(超過五年共同使用部分）</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>華南商業銀行仁愛路分行</t>
@@ -1047,7 +1050,7 @@
         <v>54</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>34</v>
@@ -1100,7 +1103,7 @@
         <v>55</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>34</v>
@@ -1153,7 +1156,7 @@
         <v>55</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>34</v>
@@ -1206,7 +1209,7 @@
         <v>55</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>34</v>
@@ -1259,7 +1262,7 @@
         <v>55</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>34</v>
@@ -1312,7 +1315,7 @@
         <v>56</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>34</v>
@@ -1365,7 +1368,7 @@
         <v>57</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>34</v>
@@ -1418,7 +1421,7 @@
         <v>57</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>34</v>
@@ -1460,13 +1463,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -1481,13 +1484,13 @@
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -1502,13 +1505,13 @@
         <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -1523,13 +1526,13 @@
         <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -1544,13 +1547,13 @@
         <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -1565,13 +1568,13 @@
         <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
@@ -1586,13 +1589,13 @@
         <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>23</v>
@@ -1607,13 +1610,13 @@
         <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>23</v>
@@ -1628,13 +1631,13 @@
         <v>63</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
@@ -1649,13 +1652,13 @@
         <v>64</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
@@ -1670,13 +1673,13 @@
         <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>23</v>
@@ -1691,13 +1694,13 @@
         <v>67</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>23</v>
@@ -1712,13 +1715,13 @@
         <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>23</v>
@@ -1733,16 +1736,16 @@
         <v>69</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1754,16 +1757,16 @@
         <v>70</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1775,16 +1778,16 @@
         <v>71</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1796,16 +1799,16 @@
         <v>72</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F17" s="2">
         <v>115041.48</v>
@@ -1819,16 +1822,16 @@
         <v>73</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -1840,16 +1843,16 @@
         <v>74</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -1861,16 +1864,16 @@
         <v>75</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -1882,16 +1885,16 @@
         <v>76</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -1913,22 +1916,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1">
         <v>16852179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1936,22 +1939,22 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2">
         <v>16852179</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1969,22 +1972,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1">
         <v>900000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1992,22 +1995,22 @@
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2">
         <v>900000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2015,22 +2018,22 @@
         <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2">
         <v>500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃文玲_2012-04-20_財產申報表_tmpb5861.xlsx
+++ b/legislator/property/output/normal/黃文玲_2012-04-20_財產申報表_tmpb5861.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="92">
   <si>
     <t>name</t>
   </si>
@@ -197,51 +197,60 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>華南商業銀行仁愛路分行</t>
   </si>
   <si>
+    <t>華南商業銀行大安分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行大安分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行中和分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行仁和分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行大安分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行信義分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行南京東路分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行城中分行</t>
+  </si>
+  <si>
+    <t>台中商業銀行北員林分行</t>
+  </si>
+  <si>
     <t>支票存款</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>華南商業銀行大安分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行大安分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行中和分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行仁和分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行大安分行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行信義分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行南京東路分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行城中分行</t>
-  </si>
-  <si>
-    <t>台中商業銀行北員林分行</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -252,6 +261,9 @@
   </si>
   <si>
     <t>碩成國際法律事務所</t>
+  </si>
+  <si>
+    <t>deposit</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -1455,13 +1467,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
@@ -1472,433 +1484,851 @@
         <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>3753</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>3753</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1756</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>1195055</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1756</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>105848</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1756</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2">
+        <v>91026</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1756</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="2">
         <v>59</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>91026</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>389</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1756</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2">
+        <v>961665</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1756</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="2">
         <v>61</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>961665</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>180563</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1756</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>63</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>10890000</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1756</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>64</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>17041</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1756</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1756</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>67</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="2">
+        <v>21</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1756</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="2">
         <v>67</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="2">
+        <v>179843</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1756</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="2">
         <v>68</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>179843</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>69</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+        <v>78</v>
+      </c>
+      <c r="F14" s="2">
         <v>642</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1756</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>70</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+        <v>78</v>
+      </c>
+      <c r="F15" s="2">
         <v>1420927</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1756</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>71</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+        <v>78</v>
+      </c>
+      <c r="F16" s="2">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1756</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>72</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3387972</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1756</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="2">
         <v>72</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="2">
-        <v>115041.48</v>
-      </c>
-      <c r="G17" s="2">
-        <v>3387972</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>73</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+        <v>78</v>
+      </c>
+      <c r="F18" s="2">
         <v>3020903</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1756</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>74</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+        <v>79</v>
+      </c>
+      <c r="F19" s="2">
         <v>62540</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1756</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>75</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
+        <v>80</v>
+      </c>
+      <c r="F20" s="2">
         <v>3250377</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1756</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>76</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
+        <v>80</v>
+      </c>
+      <c r="F21" s="2">
         <v>664650</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1756</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="2">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1916,22 +2346,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1">
         <v>16852179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1939,22 +2369,22 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2">
         <v>16852179</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1972,22 +2402,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1">
         <v>900000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1995,22 +2425,22 @@
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2">
         <v>900000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2018,22 +2448,22 @@
         <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2">
         <v>500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃文玲_2012-04-20_財產申報表_tmpb5861.xlsx
+++ b/legislator/property/output/normal/黃文玲_2012-04-20_財產申報表_tmpb5861.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="98">
   <si>
     <t>name</t>
   </si>
@@ -266,6 +266,12 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>房屋貸款</t>
   </si>
   <si>
@@ -278,6 +284,15 @@
     <t>購置房屋</t>
   </si>
   <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>陸上不動產開發股份有限公司</t>
   </si>
   <si>
@@ -287,13 +302,16 @@
     <t>101年02月29日</t>
   </si>
   <si>
+    <t>101年02月01曰</t>
+  </si>
+  <si>
     <t>個人投資</t>
   </si>
   <si>
-    <t>101年02月01曰</t>
-  </si>
-  <si>
     <t>獨資</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -2338,53 +2356,95 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="1">
-        <v>16852179</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2">
         <v>16852179</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1756</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="2">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2394,33 +2454,54 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="1">
-        <v>900000</v>
+        <v>90</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>120</v>
       </c>
@@ -2428,22 +2509,43 @@
         <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2">
         <v>900000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>95</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1756</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>121</v>
       </c>
@@ -2454,16 +2556,37 @@
         <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2">
         <v>500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1756</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="2">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
